--- a/Timeline and Resposiblities.xlsx
+++ b/Timeline and Resposiblities.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pravin Patange\Desktop\Project 27-Presentatioin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Manh\manh\croppredictionsystem_12_eDAC_May2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA94F9E-FFE6-474B-9586-A20D5C096F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456F2AD1-0212-497C-9357-D8765A8D1F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="270" windowWidth="19160" windowHeight="9930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2200" yWindow="2200" windowWidth="15810" windowHeight="6800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Roles &amp; Responsiblity" sheetId="2" r:id="rId1"/>
@@ -157,7 +157,7 @@
     <t xml:space="preserve">Managed all Frontend, jsp pages </t>
   </si>
   <si>
-    <t>Backend,Database</t>
+    <t>Backend,Database prarvin</t>
   </si>
 </sst>
 </file>
